--- a/www.eia.gov/electricity/monthly/xls/table_es2b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_es2b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -57,10 +57,10 @@
     <t>Fuel</t>
   </si>
   <si>
-    <t>October 2016</t>
+    <t>November 2016</t>
   </si>
   <si>
-    <t>October 2015</t>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Coal</t>
@@ -1207,34 +1207,34 @@
         <v>13</v>
       </c>
       <c r="B8" s="10">
-        <v>1125624</v>
+        <v>1082182</v>
       </c>
       <c r="C8" s="10">
-        <v>1285699</v>
+        <v>1170593</v>
       </c>
       <c r="D8" s="11">
-        <v>2.0699999999999998</v>
+        <v>2.09</v>
       </c>
       <c r="E8" s="11">
         <v>2.15</v>
       </c>
       <c r="F8" s="10">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G8" s="10">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H8" s="10">
-        <v>10159891</v>
+        <v>11242072</v>
       </c>
       <c r="I8" s="10">
-        <v>12791362</v>
+        <v>13961955</v>
       </c>
       <c r="J8" s="11">
         <v>2.12</v>
       </c>
       <c r="K8" s="11">
-        <v>2.2400000000000002</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1242,34 +1242,34 @@
         <v>14</v>
       </c>
       <c r="B9" s="10">
-        <v>8262</v>
+        <v>9430</v>
       </c>
       <c r="C9" s="10">
-        <v>13066</v>
+        <v>14148</v>
       </c>
       <c r="D9" s="11">
-        <v>9.98</v>
+        <v>10.07</v>
       </c>
       <c r="E9" s="11">
-        <v>9.1</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="F9" s="10">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="G9" s="10">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="H9" s="10">
-        <v>83232</v>
+        <v>92662</v>
       </c>
       <c r="I9" s="10">
-        <v>123462</v>
+        <v>137610</v>
       </c>
       <c r="J9" s="11">
-        <v>9.15</v>
+        <v>9.24</v>
       </c>
       <c r="K9" s="11">
-        <v>12</v>
+        <v>11.68</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1277,34 +1277,34 @@
         <v>15</v>
       </c>
       <c r="B10" s="10">
-        <v>8843</v>
+        <v>9364</v>
       </c>
       <c r="C10" s="10">
-        <v>11080</v>
+        <v>12117</v>
       </c>
       <c r="D10" s="11">
-        <v>1.98</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="E10" s="11">
-        <v>1.83</v>
+        <v>1.59</v>
       </c>
       <c r="F10" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" s="10">
-        <v>97420</v>
+        <v>106785</v>
       </c>
       <c r="I10" s="10">
-        <v>115513</v>
+        <v>127631</v>
       </c>
       <c r="J10" s="11">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="K10" s="11">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1312,34 +1312,34 @@
         <v>16</v>
       </c>
       <c r="B11" s="10">
-        <v>793575</v>
+        <v>721028</v>
       </c>
       <c r="C11" s="10">
-        <v>833330</v>
+        <v>783337</v>
       </c>
       <c r="D11" s="11">
-        <v>3.13</v>
+        <v>3.02</v>
       </c>
       <c r="E11" s="11">
-        <v>2.92</v>
+        <v>2.65</v>
       </c>
       <c r="F11" s="10">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="G11" s="10">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="H11" s="10">
-        <v>9135858</v>
+        <v>9856886</v>
       </c>
       <c r="I11" s="10">
-        <v>8571566</v>
+        <v>9354902</v>
       </c>
       <c r="J11" s="11">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="K11" s="11">
-        <v>3.34</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1347,34 +1347,34 @@
         <v>17</v>
       </c>
       <c r="B12" s="10">
-        <v>1936304</v>
+        <v>1822005</v>
       </c>
       <c r="C12" s="10">
-        <v>2143175</v>
+        <v>1980194</v>
       </c>
       <c r="D12" s="11">
-        <v>2.5099999999999998</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="E12" s="11">
-        <v>2.4700000000000002</v>
+        <v>2.38</v>
       </c>
       <c r="F12" s="10">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="G12" s="10">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="H12" s="10">
-        <v>19476401</v>
+        <v>21298406</v>
       </c>
       <c r="I12" s="10">
-        <v>21601904</v>
+        <v>23582098</v>
       </c>
       <c r="J12" s="11">
         <v>2.44</v>
       </c>
       <c r="K12" s="11">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1514,28 +1514,28 @@
         <v>13</v>
       </c>
       <c r="B19" s="10">
-        <v>837987</v>
+        <v>801020</v>
       </c>
       <c r="C19" s="10">
-        <v>941342</v>
+        <v>862786</v>
       </c>
       <c r="D19" s="11">
         <v>2.13</v>
       </c>
       <c r="E19" s="11">
-        <v>2.19</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F19" s="10">
         <v>194</v>
       </c>
       <c r="G19" s="10">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H19" s="10">
-        <v>7623862</v>
+        <v>8424882</v>
       </c>
       <c r="I19" s="10">
-        <v>9400306</v>
+        <v>10263092</v>
       </c>
       <c r="J19" s="11">
         <v>2.17</v>
@@ -1549,34 +1549,34 @@
         <v>14</v>
       </c>
       <c r="B20" s="10">
-        <v>5174</v>
+        <v>6595</v>
       </c>
       <c r="C20" s="10">
-        <v>5909</v>
+        <v>8558</v>
       </c>
       <c r="D20" s="11">
-        <v>9.75</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="E20" s="11">
-        <v>9.43</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F20" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G20" s="10">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="H20" s="10">
-        <v>60849</v>
+        <v>67444</v>
       </c>
       <c r="I20" s="10">
-        <v>74080</v>
+        <v>82638</v>
       </c>
       <c r="J20" s="11">
-        <v>8.94</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="K20" s="11">
-        <v>11.89</v>
+        <v>11.57</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1584,34 +1584,34 @@
         <v>15</v>
       </c>
       <c r="B21" s="10">
-        <v>7088</v>
+        <v>7871</v>
       </c>
       <c r="C21" s="10">
-        <v>9567</v>
+        <v>10082</v>
       </c>
       <c r="D21" s="11">
-        <v>1.87</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="E21" s="11">
-        <v>1.77</v>
+        <v>1.46</v>
       </c>
       <c r="F21" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G21" s="10">
         <v>9</v>
       </c>
       <c r="H21" s="10">
-        <v>83818</v>
+        <v>91688</v>
       </c>
       <c r="I21" s="10">
-        <v>97356</v>
+        <v>107437</v>
       </c>
       <c r="J21" s="11">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="K21" s="11">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1619,34 +1619,34 @@
         <v>16</v>
       </c>
       <c r="B22" s="10">
-        <v>368564</v>
+        <v>338187</v>
       </c>
       <c r="C22" s="10">
-        <v>380675</v>
+        <v>365361</v>
       </c>
       <c r="D22" s="11">
-        <v>3.54</v>
+        <v>3.37</v>
       </c>
       <c r="E22" s="11">
-        <v>3.25</v>
+        <v>2.97</v>
       </c>
       <c r="F22" s="10">
         <v>403</v>
       </c>
       <c r="G22" s="10">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H22" s="10">
-        <v>4363873</v>
+        <v>4702060</v>
       </c>
       <c r="I22" s="10">
-        <v>3966269</v>
+        <v>4331629</v>
       </c>
       <c r="J22" s="11">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="K22" s="11">
-        <v>3.63</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1654,34 +1654,34 @@
         <v>17</v>
       </c>
       <c r="B23" s="10">
-        <v>1218813</v>
+        <v>1153673</v>
       </c>
       <c r="C23" s="10">
-        <v>1337493</v>
+        <v>1246786</v>
       </c>
       <c r="D23" s="11">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="E23" s="11">
-        <v>2.52</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="F23" s="10">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G23" s="10">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="H23" s="10">
-        <v>12132402</v>
+        <v>13286075</v>
       </c>
       <c r="I23" s="10">
-        <v>13538010</v>
+        <v>14784797</v>
       </c>
       <c r="J23" s="11">
         <v>2.52</v>
       </c>
       <c r="K23" s="11">
-        <v>2.71</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1821,34 +1821,34 @@
         <v>13</v>
       </c>
       <c r="B30" s="10">
-        <v>274749</v>
+        <v>270974</v>
       </c>
       <c r="C30" s="10">
-        <v>323263</v>
+        <v>286023</v>
       </c>
       <c r="D30" s="11">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="E30" s="11">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="F30" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G30" s="10">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H30" s="10">
-        <v>2405092</v>
+        <v>2676066</v>
       </c>
       <c r="I30" s="10">
-        <v>3167367</v>
+        <v>3453390</v>
       </c>
       <c r="J30" s="11">
         <v>1.94</v>
       </c>
       <c r="K30" s="11">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1856,34 +1856,34 @@
         <v>14</v>
       </c>
       <c r="B31" s="10">
-        <v>2860</v>
+        <v>2625</v>
       </c>
       <c r="C31" s="10">
-        <v>6936</v>
+        <v>5410</v>
       </c>
       <c r="D31" s="11">
-        <v>10.39</v>
+        <v>10.76</v>
       </c>
       <c r="E31" s="11">
-        <v>8.6999999999999993</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="F31" s="10">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G31" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H31" s="10">
-        <v>20881</v>
+        <v>23506</v>
       </c>
       <c r="I31" s="10">
-        <v>47438</v>
+        <v>52848</v>
       </c>
       <c r="J31" s="11">
-        <v>9.73</v>
+        <v>9.85</v>
       </c>
       <c r="K31" s="11">
-        <v>12.1</v>
+        <v>11.78</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1891,10 +1891,10 @@
         <v>15</v>
       </c>
       <c r="B32" s="10">
-        <v>1548</v>
+        <v>1294</v>
       </c>
       <c r="C32" s="10">
-        <v>1295</v>
+        <v>1643</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>20</v>
@@ -1909,16 +1909,16 @@
         <v>1</v>
       </c>
       <c r="H32" s="10">
-        <v>10772</v>
+        <v>12066</v>
       </c>
       <c r="I32" s="10">
-        <v>11166</v>
+        <v>12809</v>
       </c>
       <c r="J32" s="11">
         <v>2.5</v>
       </c>
       <c r="K32" s="11">
-        <v>2.44</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1926,34 +1926,34 @@
         <v>16</v>
       </c>
       <c r="B33" s="10">
-        <v>361881</v>
+        <v>317208</v>
       </c>
       <c r="C33" s="10">
-        <v>394437</v>
+        <v>351912</v>
       </c>
       <c r="D33" s="11">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="E33" s="11">
-        <v>2.5499999999999998</v>
+        <v>2.31</v>
       </c>
       <c r="F33" s="10">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="G33" s="10">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H33" s="10">
-        <v>4145758</v>
+        <v>4462966</v>
       </c>
       <c r="I33" s="10">
-        <v>3969069</v>
+        <v>4320981</v>
       </c>
       <c r="J33" s="11">
-        <v>2.44</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="K33" s="11">
-        <v>3.06</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1961,10 +1961,10 @@
         <v>17</v>
       </c>
       <c r="B34" s="10">
-        <v>641038</v>
+        <v>592100</v>
       </c>
       <c r="C34" s="10">
-        <v>725931</v>
+        <v>644987</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>20</v>
@@ -1973,16 +1973,16 @@
         <v>20</v>
       </c>
       <c r="F34" s="10">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="G34" s="10">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H34" s="10">
-        <v>6582503</v>
+        <v>7174604</v>
       </c>
       <c r="I34" s="10">
-        <v>7195040</v>
+        <v>7840027</v>
       </c>
       <c r="J34" s="11" t="s">
         <v>20</v>
@@ -2128,10 +2128,10 @@
         <v>13</v>
       </c>
       <c r="B41" s="10">
-        <v>159</v>
+        <v>237</v>
       </c>
       <c r="C41" s="10">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>20</v>
@@ -2146,16 +2146,16 @@
         <v>1</v>
       </c>
       <c r="H41" s="10">
-        <v>837</v>
+        <v>1074</v>
       </c>
       <c r="I41" s="10">
-        <v>2070</v>
+        <v>2252</v>
       </c>
       <c r="J41" s="11" t="s">
         <v>20</v>
       </c>
       <c r="K41" s="11">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2233,10 +2233,10 @@
         <v>16</v>
       </c>
       <c r="B44" s="10">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="C44" s="10">
-        <v>530</v>
+        <v>775</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>20</v>
@@ -2251,10 +2251,10 @@
         <v>3</v>
       </c>
       <c r="H44" s="10">
-        <v>6825</v>
+        <v>7438</v>
       </c>
       <c r="I44" s="10">
-        <v>5200</v>
+        <v>5975</v>
       </c>
       <c r="J44" s="11" t="s">
         <v>20</v>
@@ -2268,10 +2268,10 @@
         <v>17</v>
       </c>
       <c r="B45" s="10">
-        <v>757</v>
+        <v>850</v>
       </c>
       <c r="C45" s="10">
-        <v>660</v>
+        <v>957</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>20</v>
@@ -2286,10 +2286,10 @@
         <v>3</v>
       </c>
       <c r="H45" s="10">
-        <v>7662</v>
+        <v>8512</v>
       </c>
       <c r="I45" s="10">
-        <v>7270</v>
+        <v>8226</v>
       </c>
       <c r="J45" s="11" t="s">
         <v>20</v>
@@ -2435,10 +2435,10 @@
         <v>13</v>
       </c>
       <c r="B52" s="10">
-        <v>12729</v>
+        <v>9951</v>
       </c>
       <c r="C52" s="10">
-        <v>20964</v>
+        <v>21602</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>20</v>
@@ -2447,22 +2447,22 @@
         <v>20</v>
       </c>
       <c r="F52" s="10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G52" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H52" s="10">
-        <v>130099</v>
+        <v>140050</v>
       </c>
       <c r="I52" s="10">
-        <v>221619</v>
+        <v>243222</v>
       </c>
       <c r="J52" s="11" t="s">
         <v>20</v>
       </c>
       <c r="K52" s="11">
-        <v>2.73</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2470,34 +2470,34 @@
         <v>14</v>
       </c>
       <c r="B53" s="10">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C53" s="10">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="D53" s="11">
-        <v>10.220000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="E53" s="11">
-        <v>12.74</v>
+        <v>11.49</v>
       </c>
       <c r="F53" s="10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G53" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H53" s="10">
-        <v>1502</v>
+        <v>1712</v>
       </c>
       <c r="I53" s="10">
-        <v>1944</v>
+        <v>2124</v>
       </c>
       <c r="J53" s="11">
-        <v>9.65</v>
+        <v>9.74</v>
       </c>
       <c r="K53" s="11">
-        <v>13.84</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -2505,10 +2505,10 @@
         <v>15</v>
       </c>
       <c r="B54" s="10">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C54" s="10">
-        <v>218</v>
+        <v>393</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>20</v>
@@ -2520,13 +2520,13 @@
         <v>1</v>
       </c>
       <c r="G54" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" s="10">
-        <v>2831</v>
+        <v>3031</v>
       </c>
       <c r="I54" s="10">
-        <v>6992</v>
+        <v>7385</v>
       </c>
       <c r="J54" s="11" t="s">
         <v>20</v>
@@ -2540,10 +2540,10 @@
         <v>16</v>
       </c>
       <c r="B55" s="10">
-        <v>62533</v>
+        <v>65021</v>
       </c>
       <c r="C55" s="10">
-        <v>57688</v>
+        <v>65289</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>20</v>
@@ -2552,16 +2552,16 @@
         <v>20</v>
       </c>
       <c r="F55" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G55" s="10">
         <v>53</v>
       </c>
       <c r="H55" s="10">
-        <v>619402</v>
+        <v>684423</v>
       </c>
       <c r="I55" s="10">
-        <v>631028</v>
+        <v>696317</v>
       </c>
       <c r="J55" s="11" t="s">
         <v>20</v>
@@ -2575,10 +2575,10 @@
         <v>17</v>
       </c>
       <c r="B56" s="10">
-        <v>75696</v>
+        <v>75381</v>
       </c>
       <c r="C56" s="10">
-        <v>79091</v>
+        <v>87464</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>20</v>
@@ -2593,10 +2593,10 @@
         <v>60</v>
       </c>
       <c r="H56" s="10">
-        <v>753834</v>
+        <v>829215</v>
       </c>
       <c r="I56" s="10">
-        <v>861584</v>
+        <v>949048</v>
       </c>
       <c r="J56" s="11" t="s">
         <v>20</v>
